--- a/T04_M2_D3_IDD_files/T04_M2_D3_IDD_Sales_Organization_RZD.xlsx
+++ b/T04_M2_D3_IDD_files/T04_M2_D3_IDD_Sales_Organization_RZD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\New folder (3)\Course Material UST\Sem 5-Spr2018\Data Warehousing\Project\M2\Solved\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\New folder (3)\Course Material UST\Sem 5-Spr2018\Data Warehousing\Project\M2\Solved\T04_M2_D3_IDD_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF613A53-249C-47F5-B73C-3CF918EFD6AE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E163186-C2C2-4F9E-BB4A-4CC2652337EF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{4AEB511D-8706-4EC5-8474-93D7501E35E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Dimension Name</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>(62*2)+1=125</t>
+  </si>
+  <si>
+    <t>Sales_Organization_KEY</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -535,6 +538,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -607,21 +631,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -634,6 +643,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3366FF"/>
       <color rgb="FFCCFFFF"/>
     </mruColors>
   </colors>
@@ -945,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45E5A02-5FCE-4F2F-B36A-96F5CAF233C9}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1033,19 +1043,19 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64">
+      <c r="A5" s="71">
         <v>1</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="58">
         <v>1</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="16">
@@ -1057,9 +1067,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="18" t="s">
         <v>32</v>
       </c>
@@ -1075,9 +1085,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="66"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="53"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="18" t="s">
         <v>33</v>
       </c>
@@ -1093,25 +1103,25 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67">
+      <c r="A8" s="74">
         <v>2</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="57">
         <v>32</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="51" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="28">
         <v>32</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="57" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="29" t="s">
@@ -1119,27 +1129,27 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="48"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="51" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="28">
         <v>32</v>
       </c>
-      <c r="G9" s="48"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="48"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="30" t="s">
         <v>27</v>
       </c>
@@ -1149,7 +1159,7 @@
       <c r="F10" s="28">
         <v>26</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="55" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="29">
@@ -1157,9 +1167,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="67"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="49"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="31" t="s">
         <v>28</v>
       </c>
@@ -1169,25 +1179,25 @@
       <c r="F11" s="29">
         <v>26</v>
       </c>
-      <c r="G11" s="49"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A12" s="68">
+      <c r="A12" s="75">
         <v>3</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="77" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="52" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="32">
@@ -1201,13 +1211,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="71"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="53" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="36">
@@ -1219,9 +1229,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="71"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="18" t="s">
         <v>29</v>
       </c>
@@ -1239,9 +1249,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="66"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="72"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="18" t="s">
         <v>30</v>
       </c>
@@ -1257,19 +1267,19 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="54">
+      <c r="A16" s="61">
         <v>4</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="65" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="77" t="s">
+      <c r="E16" s="54" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="29"/>
@@ -1281,14 +1291,14 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="58"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="77" t="s">
-        <v>11</v>
+      <c r="E17" s="49" t="s">
+        <v>12</v>
       </c>
       <c r="F17" s="29">
         <v>125</v>
@@ -1299,9 +1309,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="58"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="42" t="s">
         <v>35</v>
       </c>
@@ -1318,33 +1328,41 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="55"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="43" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="61"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="48">
+        <v>125</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="48">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="62"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E20" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F20" s="45">
         <v>121</v>
       </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="45">
+      <c r="G20" s="44"/>
+      <c r="H20" s="45">
         <v>25468</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -1370,6 +1388,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1388,7 +1407,6 @@
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1428,7 +1446,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1442,26 +1460,36 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B11"/>
